--- a/data/trans_orig/P16A07-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3591</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9064</v>
+        <v>8948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00757908636600076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002187207487158446</v>
+        <v>0.002167415530768271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01913035679480391</v>
+        <v>0.01888667596911826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6229</v>
+        <v>5642</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20620</v>
+        <v>19764</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03773759595139041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02031077685716326</v>
+        <v>0.01839724280463638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06723460700406017</v>
+        <v>0.06444431895090866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>15164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8421</v>
+        <v>9020</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23893</v>
+        <v>24236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01942986792198997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01079045135671107</v>
+        <v>0.01155727522200926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03061425683031874</v>
+        <v>0.03105343845098308</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>470185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>464712</v>
+        <v>464828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472740</v>
+        <v>472749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9924209136339992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9808696432051961</v>
+        <v>0.9811133240308817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978127925128415</v>
+        <v>0.9978325844692317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -836,19 +836,19 @@
         <v>295107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286060</v>
+        <v>286916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300451</v>
+        <v>301038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9622624040486096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9327653929959397</v>
+        <v>0.9355556810490911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9796892231428366</v>
+        <v>0.9816027571953636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>738</v>
@@ -857,19 +857,19 @@
         <v>765293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756564</v>
+        <v>756221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772036</v>
+        <v>771437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.98057013207801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9693857431696812</v>
+        <v>0.9689465615490168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9892095486432889</v>
+        <v>0.9884427247779908</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2035</v>
+        <v>2090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12119</v>
+        <v>12288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0162852397733712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005545042585995587</v>
+        <v>0.005695818656109995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03302779404746739</v>
+        <v>0.03348882172135722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -982,19 +982,19 @@
         <v>23478</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15556</v>
+        <v>15431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34061</v>
+        <v>34390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06313633367655545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0418329412739558</v>
+        <v>0.04149671153256022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09159540992303543</v>
+        <v>0.09247981846371246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1003,19 +1003,19 @@
         <v>29454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19532</v>
+        <v>19736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41775</v>
+        <v>41515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03986712822613996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02643754520660941</v>
+        <v>0.02671404107100162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05654512466390725</v>
+        <v>0.05619266602683419</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>360958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354815</v>
+        <v>354646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364899</v>
+        <v>364844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9837147602266288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9669722059525327</v>
+        <v>0.966511178278643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944549574140044</v>
+        <v>0.99430418134389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -1053,19 +1053,19 @@
         <v>348387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>337804</v>
+        <v>337475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356309</v>
+        <v>356434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9368636663234445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9084045900769645</v>
+        <v>0.9075201815362874</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9581670587260441</v>
+        <v>0.9585032884674397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>685</v>
@@ -1074,19 +1074,19 @@
         <v>709345</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>697024</v>
+        <v>697284</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>719267</v>
+        <v>719063</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9601328717738601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9434548753360927</v>
+        <v>0.943807333973166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9735624547933907</v>
+        <v>0.9732859589289984</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8118</v>
+        <v>7461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22274</v>
+        <v>23374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02530280656300595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01496711855068752</v>
+        <v>0.01375497787176515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04106565896423348</v>
+        <v>0.04309453273999054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12309</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6566</v>
+        <v>6671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20747</v>
+        <v>21331</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07336495643808098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03913123668987159</v>
+        <v>0.03976015707158648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1236529565557228</v>
+        <v>0.1271346805306252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1220,19 +1220,19 @@
         <v>26033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17549</v>
+        <v>17289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37468</v>
+        <v>38177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03665776074714752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02471036023593043</v>
+        <v>0.02434497816115799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05275878036287308</v>
+        <v>0.05375704965213799</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>528665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520115</v>
+        <v>519015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534271</v>
+        <v>534928</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.974697193436994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9589343410357666</v>
+        <v>0.9569054672600096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850328814493124</v>
+        <v>0.9862450221282351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1270,19 +1270,19 @@
         <v>155473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147035</v>
+        <v>146451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161216</v>
+        <v>161111</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9266350435619191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8763470434442768</v>
+        <v>0.8728653194693747</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9608687633101284</v>
+        <v>0.9602398429284135</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>670</v>
@@ -1291,19 +1291,19 @@
         <v>684138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>672703</v>
+        <v>671994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>692622</v>
+        <v>692882</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9633422392528525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9472412196371269</v>
+        <v>0.946242950347862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9752896397640696</v>
+        <v>0.975655021838842</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17045</v>
+        <v>16172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36277</v>
+        <v>36546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02021437282761332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01376476773457723</v>
+        <v>0.01305912815909224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02929464026573285</v>
+        <v>0.02951205845395228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1416,19 +1416,19 @@
         <v>44580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32387</v>
+        <v>33048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57658</v>
+        <v>59307</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0624127233606916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04534123146427275</v>
+        <v>0.04626746685642818</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0807206953275751</v>
+        <v>0.08303027296367424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1437,19 +1437,19 @@
         <v>69613</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55368</v>
+        <v>55257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87364</v>
+        <v>87753</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03565089754932665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02835593075780867</v>
+        <v>0.02829907191938796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04474211950913013</v>
+        <v>0.0449409951084075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1213302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1202057</v>
+        <v>1201788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1221289</v>
+        <v>1222162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9797856271723867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9707053597342667</v>
+        <v>0.9704879415460478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9862352322654225</v>
+        <v>0.9869408718409077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -1487,19 +1487,19 @@
         <v>669705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>656627</v>
+        <v>654978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681898</v>
+        <v>681237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9375872766393084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9192793046724249</v>
+        <v>0.9169697270363263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9546587685357272</v>
+        <v>0.9537325331435719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1847</v>
@@ -1508,19 +1508,19 @@
         <v>1883007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1865256</v>
+        <v>1864867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897252</v>
+        <v>1897363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9643491024506734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.95525788049087</v>
+        <v>0.9550590048915927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716440692421914</v>
+        <v>0.971700928080612</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6746</v>
+        <v>6805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20999</v>
+        <v>20710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03524960267081129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01929985842677585</v>
+        <v>0.01946932571442707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06007697707448351</v>
+        <v>0.05924871130482073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1633,19 +1633,19 @@
         <v>46082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34072</v>
+        <v>34450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60381</v>
+        <v>60332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08102237845529386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0599068633434467</v>
+        <v>0.06057049072447404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1061633736516623</v>
+        <v>0.1060783789267761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1654,19 +1654,19 @@
         <v>58403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44040</v>
+        <v>45270</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73887</v>
+        <v>74144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06359944914297855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04795867882528853</v>
+        <v>0.04929871184521191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08046196337616404</v>
+        <v>0.08074125494211515</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>337216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>328538</v>
+        <v>328827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>342791</v>
+        <v>342732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9647503973291887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9399230229255164</v>
+        <v>0.9407512886951791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.980700141573224</v>
+        <v>0.9805306742855727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>494</v>
@@ -1704,19 +1704,19 @@
         <v>522670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>508371</v>
+        <v>508420</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>534680</v>
+        <v>534302</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9189776215447062</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8938366263483376</v>
+        <v>0.8939216210732239</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9400931366565533</v>
+        <v>0.9394295092755259</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>821</v>
@@ -1725,19 +1725,19 @@
         <v>859886</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>844402</v>
+        <v>844145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>874249</v>
+        <v>873019</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9364005508570215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9195380366238357</v>
+        <v>0.9192587450578849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9520413211747112</v>
+        <v>0.9507012881547882</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4523</v>
+        <v>4621</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17763</v>
+        <v>17362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03171109205640581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01516662050616917</v>
+        <v>0.01549602568030899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05956736828842336</v>
+        <v>0.05822338602754254</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1850,19 +1850,19 @@
         <v>80158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64619</v>
+        <v>63235</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98217</v>
+        <v>98944</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06418991807851257</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05174657542547457</v>
+        <v>0.05063856153109271</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07865129719573838</v>
+        <v>0.07923342019938662</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1871,19 +1871,19 @@
         <v>89614</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73074</v>
+        <v>73438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110478</v>
+        <v>110153</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05792912181576047</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0472370072310592</v>
+        <v>0.04747269586959479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07141630887030827</v>
+        <v>0.07120630610907727</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280438</v>
+        <v>280839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293678</v>
+        <v>293580</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9682889079435942</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9404326317115769</v>
+        <v>0.9417766139724576</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.984833379493831</v>
+        <v>0.9845039743196911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1162</v>
@@ -1921,19 +1921,19 @@
         <v>1168602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1150543</v>
+        <v>1149816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1184141</v>
+        <v>1185525</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9358100819214874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9213487028042616</v>
+        <v>0.9207665798006135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9482534245745255</v>
+        <v>0.9493614384689073</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1459</v>
@@ -1942,19 +1942,19 @@
         <v>1457346</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1436482</v>
+        <v>1436807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1473886</v>
+        <v>1473522</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9420708781842395</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9285836911296917</v>
+        <v>0.928793693890923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9527629927689408</v>
+        <v>0.9525273041304053</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>70100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54186</v>
+        <v>55046</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86756</v>
+        <v>89745</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02144268886643769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01657488542320897</v>
+        <v>0.01683786256720318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02653760585942121</v>
+        <v>0.02745192795613467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -2067,19 +2067,19 @@
         <v>218181</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>191345</v>
+        <v>191300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250678</v>
+        <v>248108</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06458637315317728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0566424619178953</v>
+        <v>0.0566290129317303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07420626123052541</v>
+        <v>0.07344546145123799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>282</v>
@@ -2088,19 +2088,19 @@
         <v>288281</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257897</v>
+        <v>258338</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322579</v>
+        <v>323868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04336810327844535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03879722028227068</v>
+        <v>0.03886357166587941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04852779271644566</v>
+        <v>0.04872183896603763</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3199072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3182416</v>
+        <v>3179427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3214986</v>
+        <v>3214126</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9785573111335623</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9734623941405788</v>
+        <v>0.9725480720438651</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9834251145767908</v>
+        <v>0.9831621374327968</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3085</v>
@@ -2138,19 +2138,19 @@
         <v>3159943</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3127446</v>
+        <v>3130016</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3186779</v>
+        <v>3186824</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9354136268468227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9257937387694745</v>
+        <v>0.9265545385487618</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9433575380821045</v>
+        <v>0.9433709870682696</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6220</v>
@@ -2159,19 +2159,19 @@
         <v>6359015</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6324717</v>
+        <v>6323428</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6389399</v>
+        <v>6388958</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9566318967215547</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9514722072835543</v>
+        <v>0.9512781610339622</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9612027797177293</v>
+        <v>0.9611364283341204</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>9997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4799</v>
+        <v>4124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19785</v>
+        <v>18620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02286591521141456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01097588308327492</v>
+        <v>0.00943337151768131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04525161008822783</v>
+        <v>0.04258812545235216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2526,19 +2526,19 @@
         <v>8270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2979</v>
+        <v>3692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15655</v>
+        <v>17175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02630077075622562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009473992158608628</v>
+        <v>0.01174026140026167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04978547141791807</v>
+        <v>0.05461836215844792</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2547,19 +2547,19 @@
         <v>18268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10861</v>
+        <v>10095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30139</v>
+        <v>29638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02430286503662202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01444922558241759</v>
+        <v>0.0134298106741973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04009676689241192</v>
+        <v>0.03942942590194857</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>427214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417426</v>
+        <v>418591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432412</v>
+        <v>433087</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9771340847885854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9547483899117712</v>
+        <v>0.9574118745476485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989024116916725</v>
+        <v>0.9905666284823188</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2597,19 +2597,19 @@
         <v>306184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298799</v>
+        <v>297279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311475</v>
+        <v>310762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9736992292437744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.950214528582082</v>
+        <v>0.9453816378415526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9905260078413913</v>
+        <v>0.9882597385997384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -2618,19 +2618,19 @@
         <v>733397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>721526</v>
+        <v>722027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>740804</v>
+        <v>741570</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.975697134963378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9599032331075881</v>
+        <v>0.9605705740980515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9855507744175824</v>
+        <v>0.9865701893258028</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>12568</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5256</v>
+        <v>6197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23109</v>
+        <v>24974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03013671275842687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01260296711255247</v>
+        <v>0.01486119889764902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05541492554147312</v>
+        <v>0.05988618852309142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2743,19 +2743,19 @@
         <v>14204</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7937</v>
+        <v>7605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23492</v>
+        <v>22993</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0421437206627019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0235495554866565</v>
+        <v>0.02256461436160211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0697017767486615</v>
+        <v>0.06822231627133689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -2764,19 +2764,19 @@
         <v>26771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16603</v>
+        <v>16425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40507</v>
+        <v>40103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03550341759856013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02201861460663486</v>
+        <v>0.02178279299221721</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05371907929876453</v>
+        <v>0.05318366183183953</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>404450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393909</v>
+        <v>392044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>411762</v>
+        <v>410821</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9698632872415731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.944585074458527</v>
+        <v>0.9401138114769088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9873970328874476</v>
+        <v>0.9851388011023511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2814,19 +2814,19 @@
         <v>322830</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313542</v>
+        <v>314041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329097</v>
+        <v>329429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9578562793372981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9302982232513386</v>
+        <v>0.9317776837286629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9764504445133435</v>
+        <v>0.9774353856383977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -2835,19 +2835,19 @@
         <v>727281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>713545</v>
+        <v>713949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737449</v>
+        <v>737627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9644965824014399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9462809207012354</v>
+        <v>0.9468163381681604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9779813853933651</v>
+        <v>0.9782172070077827</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>26679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17215</v>
+        <v>16992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38965</v>
+        <v>38343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04259554805568012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02748573776662732</v>
+        <v>0.0271284508195956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06221146690895251</v>
+        <v>0.061216980610759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2960,19 +2960,19 @@
         <v>25587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17722</v>
+        <v>17260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36774</v>
+        <v>35848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09919715216486061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06870726615060313</v>
+        <v>0.06691617617850894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1425689775457736</v>
+        <v>0.138979430184584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -2981,19 +2981,19 @@
         <v>52266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39542</v>
+        <v>38363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69605</v>
+        <v>67195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05910588457505758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04471670257191263</v>
+        <v>0.04338313203327403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07871453390293331</v>
+        <v>0.07598917476071475</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>599659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587373</v>
+        <v>587995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609123</v>
+        <v>609346</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9574044519443199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9377885330910475</v>
+        <v>0.938783019389241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9725142622333727</v>
+        <v>0.9728715491804044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3031,19 +3031,19 @@
         <v>232351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221164</v>
+        <v>222090</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240216</v>
+        <v>240678</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9008028478351394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8574310224542268</v>
+        <v>0.8610205698154161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.931292733849397</v>
+        <v>0.933083823821491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>782</v>
@@ -3052,19 +3052,19 @@
         <v>832010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>814671</v>
+        <v>817081</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>844734</v>
+        <v>845913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9408941154249424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9212854660970665</v>
+        <v>0.924010825239285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9552832974280874</v>
+        <v>0.956616867966726</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>42745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30405</v>
+        <v>30512</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57483</v>
+        <v>56836</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03693468312495381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02627186991892739</v>
+        <v>0.02636437695609213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04966958846242077</v>
+        <v>0.04911028063685569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3177,19 +3177,19 @@
         <v>58521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43605</v>
+        <v>44489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74169</v>
+        <v>74765</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07633317712903913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05687687060825803</v>
+        <v>0.05802960897991392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09674309506215488</v>
+        <v>0.09752021730283128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -3198,19 +3198,19 @@
         <v>101266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83017</v>
+        <v>82014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125118</v>
+        <v>122754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05263404724625809</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04314894648265621</v>
+        <v>0.04262746383245358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06503101419472322</v>
+        <v>0.06380231834705863</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1114570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1099832</v>
+        <v>1100479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1126910</v>
+        <v>1126803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9630653168750462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9503304115375792</v>
+        <v>0.9508897193631444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9737281300810727</v>
+        <v>0.9736356230439079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>656</v>
@@ -3248,19 +3248,19 @@
         <v>708136</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>692488</v>
+        <v>691892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>723052</v>
+        <v>722168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9236668228709609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9032569049378451</v>
+        <v>0.9024797826971687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9431231293917418</v>
+        <v>0.9419703910200861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1698</v>
@@ -3269,19 +3269,19 @@
         <v>1822707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1798855</v>
+        <v>1801219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1840956</v>
+        <v>1841959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9473659527537419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9349689858052769</v>
+        <v>0.9361976816529415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9568510535173438</v>
+        <v>0.9573725361675466</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>12862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7050</v>
+        <v>6997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21681</v>
+        <v>21411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02524191214803164</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01383462472298787</v>
+        <v>0.0137322513451174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04254895966409553</v>
+        <v>0.04201925932316258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -3394,19 +3394,19 @@
         <v>94193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77521</v>
+        <v>76967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112325</v>
+        <v>112931</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1240518347318766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1020951121446065</v>
+        <v>0.101364550415916</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1479307105049495</v>
+        <v>0.1487297288463036</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -3415,19 +3415,19 @@
         <v>107055</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86923</v>
+        <v>89383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126089</v>
+        <v>128076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08437125237328623</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06850498829395624</v>
+        <v>0.07044342988713576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09937153455709066</v>
+        <v>0.1009381609880642</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>496693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>487874</v>
+        <v>488144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502505</v>
+        <v>502558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9747580878519684</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9574510403359044</v>
+        <v>0.9579807406768377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9861653752770121</v>
+        <v>0.9862677486548826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>611</v>
@@ -3465,19 +3465,19 @@
         <v>665112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>646980</v>
+        <v>646374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>681784</v>
+        <v>682338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8759481652681234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8520692894950505</v>
+        <v>0.8512702711536961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8979048878553935</v>
+        <v>0.8986354495840839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1084</v>
@@ -3486,19 +3486,19 @@
         <v>1161805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1142771</v>
+        <v>1140784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1181937</v>
+        <v>1179477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9156287476267138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9006284654429095</v>
+        <v>0.8990618390119358</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9314950117060443</v>
+        <v>0.9295565701128642</v>
       </c>
     </row>
     <row r="18">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4908</v>
+        <v>5489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003651334201490831</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01846099273320497</v>
+        <v>0.0206473834056722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -3611,19 +3611,19 @@
         <v>95830</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79496</v>
+        <v>75524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117406</v>
+        <v>115177</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.086861880555552</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07205621528021437</v>
+        <v>0.0684563731612986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1064187001338579</v>
+        <v>0.1043989152526038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -3632,19 +3632,19 @@
         <v>96800</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78763</v>
+        <v>77208</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>117504</v>
+        <v>117517</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07070451792750325</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05752938827192258</v>
+        <v>0.05639403270388763</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08582700121835858</v>
+        <v>0.08583619754570536</v>
       </c>
     </row>
     <row r="20">
@@ -3661,7 +3661,7 @@
         <v>264870</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260933</v>
+        <v>260352</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>265841</v>
@@ -3670,7 +3670,7 @@
         <v>0.9963486657985091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.981539007266795</v>
+        <v>0.979352616594328</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3682,19 +3682,19 @@
         <v>1007413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>985837</v>
+        <v>988066</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1023747</v>
+        <v>1027719</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.913138119444448</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8935812998661422</v>
+        <v>0.8956010847473962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9279437847197857</v>
+        <v>0.9315436268387012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1210</v>
@@ -3703,19 +3703,19 @@
         <v>1272284</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1251580</v>
+        <v>1251567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1290321</v>
+        <v>1291876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9292954820724968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9141729987816415</v>
+        <v>0.9141638024542947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9424706117280774</v>
+        <v>0.9436059672961125</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>105822</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86060</v>
+        <v>85699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129486</v>
+        <v>129645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03100300585366247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02521335757529582</v>
+        <v>0.02510741265606815</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03793603509453467</v>
+        <v>0.03798258626133318</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>281</v>
@@ -3828,19 +3828,19 @@
         <v>296605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>262973</v>
+        <v>262231</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>329599</v>
+        <v>333630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08381920211043455</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07431498716755078</v>
+        <v>0.07410534901002705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09314309209852216</v>
+        <v>0.09428229626411788</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>375</v>
@@ -3849,19 +3849,19 @@
         <v>402427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>361546</v>
+        <v>363427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>440617</v>
+        <v>443405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05788728092343571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05200676914944766</v>
+        <v>0.0522772415740408</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06338077670506542</v>
+        <v>0.06378177806814656</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3307456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3283792</v>
+        <v>3283633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3327218</v>
+        <v>3327579</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9689969941463376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9620639649054654</v>
+        <v>0.9620174137386669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9747866424247041</v>
+        <v>0.9748925873439318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2998</v>
@@ -3899,19 +3899,19 @@
         <v>3242026</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3209032</v>
+        <v>3205001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3275658</v>
+        <v>3276400</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9161807978895654</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9068569079014777</v>
+        <v>0.905717703735882</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9256850128324492</v>
+        <v>0.9258946509899729</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6101</v>
@@ -3920,19 +3920,19 @@
         <v>6549482</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6511292</v>
+        <v>6508504</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6590363</v>
+        <v>6588482</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9421127190765642</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9366192232949346</v>
+        <v>0.9362182219318536</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9479932308505524</v>
+        <v>0.9477227584259592</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>4974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1905</v>
+        <v>1049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10900</v>
+        <v>10885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01159250310508932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004439565771468834</v>
+        <v>0.002444762864358374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02540263354299984</v>
+        <v>0.02536754331718838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>13460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7292</v>
+        <v>7257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23930</v>
+        <v>23281</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03878456985646091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0210108287246358</v>
+        <v>0.02091087440825172</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06895124400145324</v>
+        <v>0.06708037302273023</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4308,19 +4308,19 @@
         <v>18435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11387</v>
+        <v>11197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28921</v>
+        <v>29238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02375146422241595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01467161342178329</v>
+        <v>0.01442674249902232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03726204157808612</v>
+        <v>0.03767092970675412</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>424118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418192</v>
+        <v>418207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427187</v>
+        <v>428043</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9884074968949107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9745973664570002</v>
+        <v>0.974632456682812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9955604342285311</v>
+        <v>0.9975552371356416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4358,19 +4358,19 @@
         <v>333595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323125</v>
+        <v>323774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339763</v>
+        <v>339798</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9612154301435391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9310487559985469</v>
+        <v>0.9329196269772698</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9789891712753642</v>
+        <v>0.9790891255917483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -4379,19 +4379,19 @@
         <v>757712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>747226</v>
+        <v>746909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>764760</v>
+        <v>764950</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9762485357775841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9627379584219139</v>
+        <v>0.9623290702932458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9853283865782175</v>
+        <v>0.9855732575009777</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>4962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1916</v>
+        <v>1888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10593</v>
+        <v>11628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01315461577976496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005078149712680256</v>
+        <v>0.005005699656434305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02808247164342602</v>
+        <v>0.03082569581312037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4504,19 +4504,19 @@
         <v>11100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5611</v>
+        <v>5932</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21323</v>
+        <v>19773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0298172552395355</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0150729338084719</v>
+        <v>0.01593470287824377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05727730920465886</v>
+        <v>0.05311391719329433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4525,19 +4525,19 @@
         <v>16062</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9106</v>
+        <v>9073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26124</v>
+        <v>26608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02143087071269605</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01214998709509213</v>
+        <v>0.01210565715209753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03485569750885239</v>
+        <v>0.03550154313502533</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>372265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366634</v>
+        <v>365599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375311</v>
+        <v>375339</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.986845384220235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.971917528356574</v>
+        <v>0.9691743041868794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949218502873197</v>
+        <v>0.9949943003435656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -4575,19 +4575,19 @@
         <v>361173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350950</v>
+        <v>352500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366662</v>
+        <v>366341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9701827447604645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9427226907953418</v>
+        <v>0.9468860828067058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849270661915285</v>
+        <v>0.9840652971217563</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>691</v>
@@ -4596,19 +4596,19 @@
         <v>733438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723376</v>
+        <v>722892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>740394</v>
+        <v>740427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.978569129287304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9651443024911477</v>
+        <v>0.9644984568649744</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9878500129049081</v>
+        <v>0.9878943428479021</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>15380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9412</v>
+        <v>8629</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25653</v>
+        <v>24046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02946835217896152</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01803268628961225</v>
+        <v>0.01653364612692283</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04915219455591378</v>
+        <v>0.04607270807669504</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -4721,19 +4721,19 @@
         <v>18001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10831</v>
+        <v>10867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27290</v>
+        <v>27659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1083610785614377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06519671067314434</v>
+        <v>0.06541288106295924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1642781979649292</v>
+        <v>0.166498023553693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -4742,19 +4742,19 @@
         <v>33381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22628</v>
+        <v>22189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47635</v>
+        <v>45942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04851658730899627</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0328871602580052</v>
+        <v>0.03224964013855288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06923308085408973</v>
+        <v>0.06677224846376202</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>506534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>496261</v>
+        <v>497868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512502</v>
+        <v>513285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9705316478210385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9508478054440861</v>
+        <v>0.9539272919233049</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9819673137103877</v>
+        <v>0.9834663538730777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -4792,19 +4792,19 @@
         <v>148122</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138833</v>
+        <v>138464</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155292</v>
+        <v>155256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8916389214385623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8357218020350708</v>
+        <v>0.8335019764463071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9348032893268556</v>
+        <v>0.9345871189370407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -4813,19 +4813,19 @@
         <v>654655</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640401</v>
+        <v>642094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>665408</v>
+        <v>665847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9514834126910037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9307669191459103</v>
+        <v>0.9332277515362378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9671128397419948</v>
+        <v>0.9677503598614471</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>28869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19855</v>
+        <v>19651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41630</v>
+        <v>42636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02511111674928193</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01727097339447466</v>
+        <v>0.01709330961247349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0362116677151114</v>
+        <v>0.0370866927418704</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -4938,19 +4938,19 @@
         <v>43390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32265</v>
+        <v>31662</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58768</v>
+        <v>57878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05253791712187211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.039067532902833</v>
+        <v>0.03833753500307748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0711588436748801</v>
+        <v>0.07008079798411321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -4959,19 +4959,19 @@
         <v>72258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56465</v>
+        <v>54690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90902</v>
+        <v>90196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03657705911751929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02858242511015654</v>
+        <v>0.02768416720902469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.046014548016903</v>
+        <v>0.04565722497611913</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1120769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1108008</v>
+        <v>1107002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1129783</v>
+        <v>1129987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9748888832507181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9637883322848886</v>
+        <v>0.9629133072581305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9827290266055252</v>
+        <v>0.9829066903875265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>757</v>
@@ -5009,19 +5009,19 @@
         <v>782486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767108</v>
+        <v>767998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>793611</v>
+        <v>794214</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9474620828781279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9288411563251199</v>
+        <v>0.9299192020158868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9609324670971668</v>
+        <v>0.9616624649969225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1832</v>
@@ -5030,19 +5030,19 @@
         <v>1903256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1884612</v>
+        <v>1885318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1919049</v>
+        <v>1920824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9634229408824807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9539854519830973</v>
+        <v>0.954342775023881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9714175748898435</v>
+        <v>0.9723158327909756</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>16858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10442</v>
+        <v>10493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25356</v>
+        <v>26705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02715882144908408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01682331504773471</v>
+        <v>0.01690496199978567</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04084951253675564</v>
+        <v>0.04302379906901794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -5155,19 +5155,19 @@
         <v>82706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64591</v>
+        <v>66117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101439</v>
+        <v>100909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1120304886438274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08749306887345179</v>
+        <v>0.08955943854749718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1374064618730852</v>
+        <v>0.1366877787676374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -5176,19 +5176,19 @@
         <v>99563</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82456</v>
+        <v>81088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119422</v>
+        <v>120556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07326501343384718</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06067610219108382</v>
+        <v>0.05966995959090756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08787805115476381</v>
+        <v>0.08871288716875671</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>603848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595350</v>
+        <v>594001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>610264</v>
+        <v>610213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9728411785509159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9591504874632442</v>
+        <v>0.9569762009309828</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9831766849522653</v>
+        <v>0.9830950380002145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>624</v>
@@ -5226,19 +5226,19 @@
         <v>655538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>636805</v>
+        <v>637335</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>673653</v>
+        <v>672127</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8879695113561726</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8625935381269147</v>
+        <v>0.8633122212323626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9125069311265481</v>
+        <v>0.910440561452503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1204</v>
@@ -5247,19 +5247,19 @@
         <v>1259387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1239528</v>
+        <v>1238394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1276494</v>
+        <v>1277862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9267349865661528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9121219488452365</v>
+        <v>0.9112871128312439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9393238978089162</v>
+        <v>0.9403300404090925</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>3164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8481</v>
+        <v>8448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01101906980371345</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003297782659280011</v>
+        <v>0.003306624098322718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02953555135946355</v>
+        <v>0.02942007399636436</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -5372,19 +5372,19 @@
         <v>83034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64420</v>
+        <v>65720</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103254</v>
+        <v>103756</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0767394139099732</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05953615503971383</v>
+        <v>0.06073805389274519</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09542683270174789</v>
+        <v>0.09589034125272301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -5393,19 +5393,19 @@
         <v>86198</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68397</v>
+        <v>69195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106582</v>
+        <v>105576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06295640821787424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04995491562599327</v>
+        <v>0.05053821061335375</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07784412087536065</v>
+        <v>0.07710936819120501</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>283981</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278664</v>
+        <v>278697</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286198</v>
+        <v>286196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9889809301962865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9704644486405365</v>
+        <v>0.9705799260036354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967022173407201</v>
+        <v>0.9966933759016773</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>918</v>
@@ -5443,19 +5443,19 @@
         <v>998991</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>978771</v>
+        <v>978269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1017605</v>
+        <v>1016305</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9232605860900268</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9045731672982521</v>
+        <v>0.904109658747277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9404638449602862</v>
+        <v>0.939261946107255</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1187</v>
@@ -5464,19 +5464,19 @@
         <v>1282972</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1262588</v>
+        <v>1263594</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1300773</v>
+        <v>1299975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9370435917821258</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9221558791246396</v>
+        <v>0.922890631808795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9500450843740068</v>
+        <v>0.9494617893866464</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>74207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60414</v>
+        <v>59777</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92988</v>
+        <v>94349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0219175924468952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01784388296864404</v>
+        <v>0.01765551071023422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02746473742587531</v>
+        <v>0.02786673292206633</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -5589,19 +5589,19 @@
         <v>251691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>221073</v>
+        <v>220424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285229</v>
+        <v>283205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07126845678503198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06259850488167878</v>
+        <v>0.06241492538863554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08076500279453813</v>
+        <v>0.08019190244555217</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>300</v>
@@ -5610,19 +5610,19 @@
         <v>325898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>292902</v>
+        <v>287251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>363068</v>
+        <v>359302</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04711338475292554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04234326603819037</v>
+        <v>0.04152633412819819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05248683813884943</v>
+        <v>0.05194234621425927</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3311515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3292734</v>
+        <v>3291373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3325308</v>
+        <v>3325945</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9780824075531048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9725352625741245</v>
+        <v>0.9721332670779337</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9821561170313559</v>
+        <v>0.9823444892897658</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3099</v>
@@ -5660,19 +5660,19 @@
         <v>3279905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3246367</v>
+        <v>3248391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3310523</v>
+        <v>3311172</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.928731543214968</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9192349972054619</v>
+        <v>0.9198080975544478</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9374014951183213</v>
+        <v>0.9375850746113643</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6250</v>
@@ -5681,19 +5681,19 @@
         <v>6591420</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6554250</v>
+        <v>6558016</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6624416</v>
+        <v>6630067</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9528866152470745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9475131618611505</v>
+        <v>0.9480576537857408</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9576567339618097</v>
+        <v>0.9584736658718019</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>14409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8168</v>
+        <v>8057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23350</v>
+        <v>24186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02616904283434984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01483480814898376</v>
+        <v>0.01463339147413756</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04240608621182997</v>
+        <v>0.04392572207669986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -6048,19 +6048,19 @@
         <v>21350</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14734</v>
+        <v>15091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29997</v>
+        <v>31967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04371223906917211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03016659825787065</v>
+        <v>0.03089843916109338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0614181445711663</v>
+        <v>0.06545055510768551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -6069,19 +6069,19 @@
         <v>35759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26197</v>
+        <v>26260</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48587</v>
+        <v>48224</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03441547942035783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02521254687658294</v>
+        <v>0.02527319533701866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04676175295018614</v>
+        <v>0.04641268540912478</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>536209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527268</v>
+        <v>526432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>542450</v>
+        <v>542561</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9738309571656502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9575939137881699</v>
+        <v>0.9560742779233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.985165191851016</v>
+        <v>0.9853666085258624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>656</v>
@@ -6119,19 +6119,19 @@
         <v>467061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458414</v>
+        <v>456444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>473677</v>
+        <v>473320</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9562877609308281</v>
+        <v>0.956287760930828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9385818554288338</v>
+        <v>0.9345494448923146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9698334017421294</v>
+        <v>0.9691015608389068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1194</v>
@@ -6140,19 +6140,19 @@
         <v>1003270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>990442</v>
+        <v>990805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1012832</v>
+        <v>1012769</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9655845205796423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9532382470498134</v>
+        <v>0.9535873145908753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9747874531234171</v>
+        <v>0.9747268046629813</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>13575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7403</v>
+        <v>7786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22626</v>
+        <v>22598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02809310747841012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01531968870687131</v>
+        <v>0.01611239823212646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04682499581199792</v>
+        <v>0.0467655642698615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -6265,19 +6265,19 @@
         <v>24634</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17738</v>
+        <v>17608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33758</v>
+        <v>33475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05821568616190707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04191952056359328</v>
+        <v>0.04161316642705963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0797786452924699</v>
+        <v>0.07911018314099494</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -6286,19 +6286,19 @@
         <v>38208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28040</v>
+        <v>28675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49948</v>
+        <v>48946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04215619964758235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0309368600285595</v>
+        <v>0.03163749760345048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05510825727860767</v>
+        <v>0.0540027543854597</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>469637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460586</v>
+        <v>460614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475809</v>
+        <v>475426</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.97190689252159</v>
+        <v>0.9719068925215899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9531750041880018</v>
+        <v>0.9532344357301384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846803112931286</v>
+        <v>0.9838876017678734</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -6336,19 +6336,19 @@
         <v>398509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389385</v>
+        <v>389668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405405</v>
+        <v>405535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9417843138380929</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9202213547075302</v>
+        <v>0.9208898168590052</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9580804794364067</v>
+        <v>0.9583868335729404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1019</v>
@@ -6357,19 +6357,19 @@
         <v>868147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>856407</v>
+        <v>857409</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878315</v>
+        <v>877680</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9578438003524177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9448917427213923</v>
+        <v>0.9459972456145401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690631399714398</v>
+        <v>0.9683625023965494</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>21686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13290</v>
+        <v>13326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33222</v>
+        <v>33209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04598233610631329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02817983974950012</v>
+        <v>0.02825570923625974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07044257539559644</v>
+        <v>0.07041581775866343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -6482,19 +6482,19 @@
         <v>16310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10865</v>
+        <v>11490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22663</v>
+        <v>23316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08699004267828619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05794569995222807</v>
+        <v>0.06128281665213588</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1208719837275075</v>
+        <v>0.1243537762708837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -6503,19 +6503,19 @@
         <v>37996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27830</v>
+        <v>28176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49691</v>
+        <v>50491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05764783247250501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04222339276934584</v>
+        <v>0.04274871292713946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07539060574096144</v>
+        <v>0.07660423872192539</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>449926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>438390</v>
+        <v>438403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>458322</v>
+        <v>458286</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9540176638936868</v>
+        <v>0.9540176638936867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9295574246044037</v>
+        <v>0.9295841822413364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9718201602504996</v>
+        <v>0.9717442907637404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>260</v>
@@ -6553,19 +6553,19 @@
         <v>171187</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164834</v>
+        <v>164181</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176632</v>
+        <v>176007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9130099573217137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8791280162724925</v>
+        <v>0.8756462237291163</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9420543000477718</v>
+        <v>0.938717183347864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>727</v>
@@ -6574,19 +6574,19 @@
         <v>621113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>609418</v>
+        <v>608618</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631279</v>
+        <v>630933</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9423521675274951</v>
+        <v>0.942352167527495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9246093942590385</v>
+        <v>0.9233957612780747</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9577766072306542</v>
+        <v>0.9572512870728606</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>42532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31825</v>
+        <v>31139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56750</v>
+        <v>56518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03757771220184574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02811766010226749</v>
+        <v>0.02751200918678931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0501390309642492</v>
+        <v>0.04993459234773765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -6699,19 +6699,19 @@
         <v>68931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56279</v>
+        <v>56827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82075</v>
+        <v>82340</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08012540390655638</v>
+        <v>0.08012540390655637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06541912590487077</v>
+        <v>0.0660555198565526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09540488825676577</v>
+        <v>0.09571315764996735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>154</v>
@@ -6720,19 +6720,19 @@
         <v>111463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95338</v>
+        <v>93479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130920</v>
+        <v>131250</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05595159329011224</v>
+        <v>0.05595159329011225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04785748052260781</v>
+        <v>0.04692446490171234</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06571858004693834</v>
+        <v>0.06588420210476123</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1089311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1075093</v>
+        <v>1075325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1100018</v>
+        <v>1100704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9624222877981541</v>
+        <v>0.9624222877981543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9498609690357507</v>
+        <v>0.9500654076522623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9718823398977326</v>
+        <v>0.9724879908132107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1121</v>
@@ -6770,19 +6770,19 @@
         <v>791353</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778209</v>
+        <v>777944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804005</v>
+        <v>803457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9198745960934436</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9045951117432343</v>
+        <v>0.9042868423500326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9345808740951291</v>
+        <v>0.9339444801434476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2192</v>
@@ -6791,19 +6791,19 @@
         <v>1880664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1861207</v>
+        <v>1860877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1896789</v>
+        <v>1898648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9440484067098877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9342814199530615</v>
+        <v>0.934115797895239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9521425194773919</v>
+        <v>0.9530755350982882</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>21116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13560</v>
+        <v>13175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31941</v>
+        <v>31337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03727581427932399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0239367617150623</v>
+        <v>0.02325708868412544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05638474241519732</v>
+        <v>0.05531834148634406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -6916,19 +6916,19 @@
         <v>84149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72211</v>
+        <v>72150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99328</v>
+        <v>99042</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1013691900265269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08698773471350864</v>
+        <v>0.08691413438513371</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1196540180859477</v>
+        <v>0.1193095391882308</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>162</v>
@@ -6937,19 +6937,19 @@
         <v>105265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89521</v>
+        <v>90894</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122719</v>
+        <v>124527</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07537214830148445</v>
+        <v>0.07537214830148443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0640991101267353</v>
+        <v>0.06508216191791438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08786917112397515</v>
+        <v>0.08916412901717219</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>545365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>534540</v>
+        <v>535144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>552921</v>
+        <v>553306</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9627241857206759</v>
+        <v>0.9627241857206761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9436152575848028</v>
+        <v>0.9446816585136564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9760632382849376</v>
+        <v>0.9767429113158747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1150</v>
@@ -6987,19 +6987,19 @@
         <v>745978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>730799</v>
+        <v>731085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>757916</v>
+        <v>757977</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8986308099734731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8803459819140521</v>
+        <v>0.8806904608117703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9130122652864914</v>
+        <v>0.9130858656148665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1672</v>
@@ -7008,19 +7008,19 @@
         <v>1291343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1273889</v>
+        <v>1272081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1307087</v>
+        <v>1305714</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9246278516985157</v>
+        <v>0.9246278516985156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9121308288760249</v>
+        <v>0.9108358709828278</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9359008898732647</v>
+        <v>0.9349178380820855</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>6401</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2217</v>
+        <v>2400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15204</v>
+        <v>15019</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02698234547333954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009346041936963215</v>
+        <v>0.01011672417431288</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06409214832356429</v>
+        <v>0.06330968348752171</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -7133,19 +7133,19 @@
         <v>64199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51128</v>
+        <v>53348</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77805</v>
+        <v>80129</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07615633758660674</v>
+        <v>0.07615633758660673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06065070999441075</v>
+        <v>0.06328379917707216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09229643329345287</v>
+        <v>0.09505272298210217</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -7154,19 +7154,19 @@
         <v>70600</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57662</v>
+        <v>57308</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86315</v>
+        <v>86152</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06535721591765574</v>
+        <v>0.06535721591765571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05337947740002768</v>
+        <v>0.05305216350329512</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07990532858456222</v>
+        <v>0.07975412838990291</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>230827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222024</v>
+        <v>222209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235011</v>
+        <v>234828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9730176545266606</v>
+        <v>0.9730176545266604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9359078516764356</v>
+        <v>0.9366903165124784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9906539580630367</v>
+        <v>0.9898832758256871</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1057</v>
@@ -7204,19 +7204,19 @@
         <v>778794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>765188</v>
+        <v>762864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>791865</v>
+        <v>789645</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9238436624133933</v>
+        <v>0.923843662413393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9077035667065469</v>
+        <v>0.9049472770178979</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9393492900055892</v>
+        <v>0.9367162008229277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1163</v>
@@ -7225,19 +7225,19 @@
         <v>1009621</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>993906</v>
+        <v>994069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1022559</v>
+        <v>1022913</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9346427840823444</v>
+        <v>0.9346427840823441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9200946714154378</v>
+        <v>0.920245871610097</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9466205225999722</v>
+        <v>0.9469478364967048</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>119719</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100462</v>
+        <v>100251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141777</v>
+        <v>143789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03479197264523388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02919572896014715</v>
+        <v>0.02913434039108641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04120238525358337</v>
+        <v>0.04178720356426992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>443</v>
@@ -7350,19 +7350,19 @@
         <v>279573</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>250603</v>
+        <v>255173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>303107</v>
+        <v>306906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07696520871099745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06899006778310018</v>
+        <v>0.07024809098735632</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08344418736650136</v>
+        <v>0.08449000885591586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>570</v>
@@ -7371,19 +7371,19 @@
         <v>399292</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>368869</v>
+        <v>367254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434668</v>
+        <v>435109</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05644935586456914</v>
+        <v>0.05644935586456915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05214832736138846</v>
+        <v>0.05192007603628426</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0614505965769454</v>
+        <v>0.0615129797552738</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3321274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3299216</v>
+        <v>3297204</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3340531</v>
+        <v>3340742</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9652080273547662</v>
+        <v>0.9652080273547661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9587976147464166</v>
+        <v>0.95821279643573</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.970804271039853</v>
+        <v>0.970865659608914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4796</v>
@@ -7421,19 +7421,19 @@
         <v>3352882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3329348</v>
+        <v>3325549</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3381852</v>
+        <v>3377282</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9230347912890026</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9165558126334986</v>
+        <v>0.9155099911440844</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9310099322169001</v>
+        <v>0.9297519090126437</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7967</v>
@@ -7442,19 +7442,19 @@
         <v>6674157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6638781</v>
+        <v>6638340</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6704580</v>
+        <v>6706195</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9435506441354309</v>
+        <v>0.9435506441354308</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9385494034230547</v>
+        <v>0.938487020244726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9478516726386115</v>
+        <v>0.9480799239637158</v>
       </c>
     </row>
     <row r="24">
